--- a/RVTA 2025-06.xlsx
+++ b/RVTA 2025-06.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>NUMERO DEL REGISTRO O CODIGO UNICO DE OPERACIÓN</t>
   </si>
@@ -117,6 +117,36 @@
   </si>
   <si>
     <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-24</t>
+  </si>
+  <si>
+    <t>2025-06-25</t>
+  </si>
+  <si>
+    <t>BRENDY YOSELY ZAPATA TORRES</t>
+  </si>
+  <si>
+    <t>8,693.22</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>FACTURA</t>
+  </si>
+  <si>
+    <t>F001</t>
+  </si>
+  <si>
+    <t>RUC</t>
+  </si>
+  <si>
+    <t>PETROLEOS DEL PERU PETROPERU SA</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
   </si>
 </sst>
 </file>
@@ -505,10 +535,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="AC9" sqref="AC9"/>
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1000,6 +1030,526 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3">
+        <v>657</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="3">
+        <v>77425200</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3">
+        <v>3658.0</v>
+      </c>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3">
+        <v>658</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="3">
+        <v>77425200</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3">
+        <v>3658.0</v>
+      </c>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3">
+        <v>659</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="3">
+        <v>77425200</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>93.22</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3">
+        <v>110.0</v>
+      </c>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3">
+        <v>660</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="3">
+        <v>77426200</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3">
+        <v>10258.0</v>
+      </c>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="3">
+        <v>661</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="3">
+        <v>77425200</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3">
+        <v>3658.0</v>
+      </c>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2370</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="3">
+        <v>20100128218</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3">
+        <v>3658.0</v>
+      </c>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3">
+        <v>662</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="3">
+        <v>77425200</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>93.22</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3">
+        <v>110.0</v>
+      </c>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="3">
+        <v>663</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="3">
+        <v>77425200</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3">
+        <v>3658.0</v>
+      </c>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1050,6 +1600,54 @@
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="W9:X9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:X17"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
